--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/INDIANA_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/INDIANA_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1341"/>
+  <dimension ref="A1:D1335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -771,7 +771,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C30">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C33">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C41">
@@ -1265,7 +1265,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C68">
@@ -1278,7 +1278,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C69">
@@ -1595,7 +1595,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C93">
@@ -1712,7 +1712,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C102">
@@ -1886,7 +1886,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C115">
@@ -2060,7 +2060,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C128">
@@ -2086,7 +2086,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2143,7 +2143,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C134">
@@ -2330,7 +2330,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C148">
@@ -2447,7 +2447,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C157">
@@ -2551,7 +2551,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C165">
@@ -2655,12 +2655,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C173">
@@ -2699,7 +2699,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C176">
@@ -2712,7 +2712,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C177">
@@ -2725,7 +2725,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C178">
@@ -2764,7 +2764,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C181">
@@ -2816,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C185">
@@ -2920,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C193">
@@ -2998,7 +2998,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C199">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C210">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>San Antonio la Isla</t>
+          <t>San Antonio La Isla</t>
         </is>
       </c>
       <c r="C216">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C217">
@@ -3271,7 +3271,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C220">
@@ -3375,7 +3375,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C228">
@@ -3388,7 +3388,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C229">
@@ -3531,7 +3531,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C240">
@@ -3609,7 +3609,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C246">
@@ -3622,7 +3622,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C247">
@@ -3635,7 +3635,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C248">
@@ -3772,7 +3772,7 @@
         <v>1037</v>
       </c>
       <c r="D258">
-        <v>0.09029168480626905</v>
+        <v>0.09029168480626903</v>
       </c>
     </row>
     <row r="259">
@@ -3809,7 +3809,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C261">
@@ -3822,7 +3822,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C262">
@@ -3835,7 +3835,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C263">
@@ -3939,7 +3939,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C271">
@@ -3991,7 +3991,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C275">
@@ -4134,7 +4134,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C286">
@@ -4160,7 +4160,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C288">
@@ -4186,7 +4186,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C290">
@@ -4199,7 +4199,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C291">
@@ -4225,7 +4225,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C293">
@@ -4290,7 +4290,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C298">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C303">
@@ -4386,7 +4386,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C305">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C306">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C310">
@@ -4477,7 +4477,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C312">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C313">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C315">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C316">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C317">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C318">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C322">
@@ -4620,7 +4620,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C323">
@@ -4672,7 +4672,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C327">
@@ -4685,7 +4685,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C328">
@@ -4763,7 +4763,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C334">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C335">
@@ -4789,7 +4789,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C336">
@@ -4802,7 +4802,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C337">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C339">
@@ -5010,7 +5010,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C353">
@@ -5036,7 +5036,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C355">
@@ -5062,7 +5062,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C357">
@@ -5088,7 +5088,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C359">
@@ -5140,7 +5140,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C363">
@@ -5153,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C364">
@@ -5262,7 +5262,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C372">
@@ -5327,7 +5327,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C377">
@@ -5340,7 +5340,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C378">
@@ -5418,7 +5418,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C384">
@@ -5457,7 +5457,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C387">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C389">
@@ -5522,7 +5522,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C392">
@@ -5574,7 +5574,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C396">
@@ -5600,7 +5600,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C398">
@@ -5613,7 +5613,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C399">
@@ -5665,7 +5665,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C403">
@@ -5704,7 +5704,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C406">
@@ -5730,7 +5730,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C408">
@@ -5795,7 +5795,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C413">
@@ -5808,7 +5808,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C414">
@@ -5821,7 +5821,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C415">
@@ -5878,7 +5878,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C419">
@@ -5956,7 +5956,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C425">
@@ -5969,7 +5969,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C426">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C429">
@@ -6073,7 +6073,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C434">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C435">
@@ -6164,7 +6164,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C441">
@@ -6216,7 +6216,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C445">
@@ -6229,7 +6229,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C446">
@@ -6281,7 +6281,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C450">
@@ -6346,7 +6346,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C455">
@@ -6359,7 +6359,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C456">
@@ -6463,7 +6463,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C464">
@@ -6528,7 +6528,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C469">
@@ -6541,7 +6541,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C470">
@@ -6554,7 +6554,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C471">
@@ -6580,7 +6580,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C473">
@@ -6606,7 +6606,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C475">
@@ -6619,7 +6619,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C476">
@@ -6658,7 +6658,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C479">
@@ -6684,7 +6684,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C481">
@@ -6723,7 +6723,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C484">
@@ -6749,7 +6749,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C486">
@@ -6762,7 +6762,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C487">
@@ -6853,7 +6853,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C494">
@@ -6866,7 +6866,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C495">
@@ -6879,7 +6879,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C496">
@@ -6905,7 +6905,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C498">
@@ -6944,7 +6944,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C501">
@@ -7235,7 +7235,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C523">
@@ -7261,7 +7261,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C525">
@@ -8054,7 +8054,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C586">
@@ -8345,7 +8345,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C608">
@@ -8436,7 +8436,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C615">
@@ -8488,7 +8488,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C619">
@@ -8566,7 +8566,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C625">
@@ -8644,7 +8644,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C631">
@@ -8779,7 +8779,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C641">
@@ -8914,7 +8914,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Ciénega de Flores</t>
+          <t>Ciénega De Flores</t>
         </is>
       </c>
       <c r="C651">
@@ -9109,7 +9109,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C666">
@@ -9166,7 +9166,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C670">
@@ -9244,7 +9244,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C676">
@@ -9257,7 +9257,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Chiquihuitlán de Benito Juárez</t>
+          <t>Chiquihuitlán De Benito Juárez</t>
         </is>
       </c>
       <c r="C677">
@@ -9296,7 +9296,7 @@
     <row r="680">
       <c r="B680" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C680">
@@ -9322,7 +9322,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C682">
@@ -9348,7 +9348,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C684">
@@ -9361,7 +9361,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C685">
@@ -9374,7 +9374,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C686">
@@ -9387,7 +9387,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C687">
@@ -9400,7 +9400,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C688">
@@ -9413,7 +9413,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C689">
@@ -9439,7 +9439,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C691">
@@ -9452,7 +9452,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C692">
@@ -9504,7 +9504,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C696">
@@ -9530,7 +9530,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C698">
@@ -9556,7 +9556,7 @@
     <row r="700">
       <c r="B700" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C700">
@@ -9582,7 +9582,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C702">
@@ -9595,7 +9595,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C703">
@@ -9608,7 +9608,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C704">
@@ -9621,7 +9621,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C705">
@@ -9686,7 +9686,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C710">
@@ -9790,7 +9790,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C718">
@@ -9816,7 +9816,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>San Francisco del Mar</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C720">
@@ -9959,7 +9959,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C731">
@@ -10349,7 +10349,7 @@
     <row r="761">
       <c r="B761" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C761">
@@ -10440,7 +10440,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C768">
@@ -10609,7 +10609,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C781">
@@ -10622,7 +10622,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Tequixtepec</t>
+          <t>San Pedro Y San Pablo Tequixtepec</t>
         </is>
       </c>
       <c r="C782">
@@ -10700,7 +10700,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C788">
@@ -10817,7 +10817,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C797">
@@ -11337,7 +11337,7 @@
     <row r="837">
       <c r="B837" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C837">
@@ -11441,7 +11441,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C845">
@@ -11454,7 +11454,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C846">
@@ -11467,7 +11467,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C847">
@@ -11480,7 +11480,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C848">
@@ -11493,7 +11493,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C849">
@@ -11506,7 +11506,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C850">
@@ -11519,7 +11519,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C851">
@@ -11532,7 +11532,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C852">
@@ -11558,7 +11558,7 @@
     <row r="854">
       <c r="B854" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C854">
@@ -11597,7 +11597,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C857">
@@ -11823,7 +11823,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C874">
@@ -11888,7 +11888,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C879">
@@ -11992,7 +11992,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C887">
@@ -12031,7 +12031,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C890">
@@ -12044,7 +12044,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C891">
@@ -12200,7 +12200,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C903">
@@ -12213,7 +12213,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C904">
@@ -12278,7 +12278,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C909">
@@ -12369,7 +12369,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C916">
@@ -12473,7 +12473,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C924">
@@ -12681,7 +12681,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C940">
@@ -12720,7 +12720,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C943">
@@ -12733,7 +12733,7 @@
     <row r="944">
       <c r="B944" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C944">
@@ -12811,7 +12811,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C950">
@@ -12915,7 +12915,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C958">
@@ -12928,7 +12928,7 @@
     <row r="959">
       <c r="B959" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C959">
@@ -12993,7 +12993,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C964">
@@ -13006,7 +13006,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C965">
@@ -13019,7 +13019,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C966">
@@ -13084,7 +13084,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C971">
@@ -13201,7 +13201,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C980">
@@ -13440,7 +13440,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C998">
@@ -13453,7 +13453,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C999">
@@ -13505,7 +13505,7 @@
     <row r="1003">
       <c r="B1003" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1003">
@@ -13518,7 +13518,7 @@
     <row r="1004">
       <c r="B1004" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1004">
@@ -13544,7 +13544,7 @@
     <row r="1006">
       <c r="B1006" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1006">
@@ -13570,7 +13570,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1008">
@@ -13736,7 +13736,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1020">
@@ -13814,7 +13814,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1026">
@@ -13879,7 +13879,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1031">
@@ -13931,7 +13931,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1035">
@@ -13957,7 +13957,7 @@
     <row r="1037">
       <c r="B1037" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1037">
@@ -14009,7 +14009,7 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1041">
@@ -14048,7 +14048,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1044">
@@ -14061,7 +14061,7 @@
     <row r="1045">
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1045">
@@ -14074,7 +14074,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1046">
@@ -14570,7 +14570,7 @@
     <row r="1083">
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1083">
@@ -14861,7 +14861,7 @@
     <row r="1105">
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1105">
@@ -15035,7 +15035,7 @@
     <row r="1118">
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1118">
@@ -15061,7 +15061,7 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1120">
@@ -15113,7 +15113,7 @@
     <row r="1124">
       <c r="B1124" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1124">
@@ -15152,7 +15152,7 @@
     <row r="1127">
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1127">
@@ -15391,7 +15391,7 @@
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1145">
@@ -15430,7 +15430,7 @@
     <row r="1148">
       <c r="B1148" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1148">
@@ -15534,7 +15534,7 @@
     <row r="1156">
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1156">
@@ -15690,7 +15690,7 @@
     <row r="1168">
       <c r="B1168" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1168">
@@ -15872,7 +15872,7 @@
     <row r="1182">
       <c r="B1182" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1182">
@@ -15885,7 +15885,7 @@
     <row r="1183">
       <c r="B1183" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1183">
@@ -15911,7 +15911,7 @@
     <row r="1185">
       <c r="B1185" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1185">
@@ -15924,7 +15924,7 @@
     <row r="1186">
       <c r="B1186" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1186">
@@ -15937,7 +15937,7 @@
     <row r="1187">
       <c r="B1187" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1187">
@@ -16080,7 +16080,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1198">
@@ -16145,7 +16145,7 @@
     <row r="1203">
       <c r="B1203" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1203">
@@ -16184,7 +16184,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1206">
@@ -16223,7 +16223,7 @@
     <row r="1209">
       <c r="B1209" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1209">
@@ -16275,7 +16275,7 @@
     <row r="1213">
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1213">
@@ -16444,7 +16444,7 @@
     <row r="1226">
       <c r="B1226" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1226">
@@ -16496,7 +16496,7 @@
     <row r="1230">
       <c r="B1230" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1230">
@@ -16587,7 +16587,7 @@
     <row r="1237">
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1237">
@@ -17016,7 +17016,7 @@
     <row r="1270">
       <c r="B1270" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1270">
@@ -17094,7 +17094,7 @@
     <row r="1276">
       <c r="B1276" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1276">
@@ -17312,7 +17312,7 @@
     <row r="1292">
       <c r="B1292" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1292">
@@ -17338,7 +17338,7 @@
     <row r="1294">
       <c r="B1294" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1294">
@@ -17455,7 +17455,7 @@
     <row r="1303">
       <c r="B1303" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1303">
@@ -17572,7 +17572,7 @@
     <row r="1312">
       <c r="B1312" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1312">
@@ -17585,7 +17585,7 @@
     <row r="1313">
       <c r="B1313" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1313">
@@ -17598,7 +17598,7 @@
     <row r="1314">
       <c r="B1314" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1314">
@@ -17715,7 +17715,7 @@
     <row r="1323">
       <c r="B1323" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1323">
@@ -17728,7 +17728,7 @@
     <row r="1324">
       <c r="B1324" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1324">
@@ -17780,7 +17780,7 @@
     <row r="1328">
       <c r="B1328" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1328">
@@ -17879,41 +17879,6 @@
       </c>
       <c r="D1335">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1337">
-      <c r="A1337" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1338">
-      <c r="A1338" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1339">
-      <c r="A1339" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1340">
-      <c r="A1340" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1341">
-      <c r="A1341" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
